--- a/Graph_Sparsification/Matlab_Plots/report/douban/accumulative_distances.xlsx
+++ b/Graph_Sparsification/Matlab_Plots/report/douban/accumulative_distances.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="2040" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="asps_flickr.txt" sheetId="2" r:id="rId1"/>
+    <sheet name="douban.txt" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
